--- a/Documentacao/Backlog PI-PPhospital.xlsx
+++ b/Documentacao/Backlog PI-PPhospital.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sersor-Vital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sersor-Vital\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Requisitos</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t>Programação do arduino</t>
+  </si>
+  <si>
+    <t>Implementação do helpdesk</t>
+  </si>
+  <si>
+    <t>Configuração dos gráficos na dashboard</t>
+  </si>
+  <si>
+    <t>Banco de dados na nuvem (Azure)</t>
+  </si>
+  <si>
+    <t>Utilização e configuração da API</t>
+  </si>
+  <si>
+    <t>Fluxograma</t>
+  </si>
+  <si>
+    <t>Modelagem lógica do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual de instalação </t>
+  </si>
+  <si>
+    <t>Página de dashboard central</t>
+  </si>
+  <si>
+    <t>Essencial</t>
   </si>
 </sst>
 </file>
@@ -139,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -285,6 +318,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,37 +832,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
